--- a/logboek_jasper.xlsx
+++ b/logboek_jasper.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Coding\Challange_Week-1\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7D73B8F0-30ED-4C74-9D01-49A40F100297}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ED587B48-C52F-41E1-8550-8DD386467802}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3120" yWindow="3120" windowWidth="21600" windowHeight="11295" xr2:uid="{D8E002C3-334E-4C47-8488-F41D8686049C}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{D8E002C3-334E-4C47-8488-F41D8686049C}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="8">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="11">
   <si>
     <t>datum</t>
   </si>
@@ -60,6 +60,15 @@
   </si>
   <si>
     <t>flush = True in de print zetten</t>
+  </si>
+  <si>
+    <t>comments, douane verhaal, winkel gefixed</t>
+  </si>
+  <si>
+    <t>random gate selectie</t>
+  </si>
+  <si>
+    <t>functie die een random variabele uit een lijst pakt met even kansen en die teruggeeft</t>
   </si>
 </sst>
 </file>
@@ -124,10 +133,17 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="1"/>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Check Cell" xfId="1" builtinId="23"/>
@@ -443,52 +459,70 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{932390AF-8C0A-4B7D-9BF6-078AB6555E27}">
-  <dimension ref="A1:E2"/>
+  <dimension ref="A1:E3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C6" sqref="C6"/>
+      <selection activeCell="C12" sqref="C12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="18.42578125" customWidth="1"/>
-    <col min="2" max="2" width="18.28515625" customWidth="1"/>
-    <col min="3" max="4" width="36.7109375" customWidth="1"/>
-    <col min="5" max="5" width="36.5703125" customWidth="1"/>
+    <col min="1" max="1" width="18.42578125" style="1" customWidth="1"/>
+    <col min="2" max="2" width="18.28515625" style="1" customWidth="1"/>
+    <col min="3" max="4" width="36.7109375" style="1" customWidth="1"/>
+    <col min="5" max="5" width="36.5703125" style="1" customWidth="1"/>
+    <col min="6" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="1" t="s">
+      <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="B1" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="C1" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="D1" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="E1" s="2" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="2" spans="1:5" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="2">
+      <c r="A2" s="3">
         <v>45194</v>
       </c>
-      <c r="B2">
+      <c r="B2" s="1">
         <v>3</v>
       </c>
-      <c r="C2" t="s">
+      <c r="C2" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="D2" t="s">
+      <c r="D2" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="E2" t="s">
+      <c r="E2" s="1" t="s">
         <v>7</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" ht="60" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="3">
+        <v>45185</v>
+      </c>
+      <c r="B3" s="1">
+        <v>2</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="E3" s="1" t="s">
+        <v>10</v>
       </c>
     </row>
   </sheetData>

--- a/logboek_jasper.xlsx
+++ b/logboek_jasper.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Coding\Challange_Week-1\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ED587B48-C52F-41E1-8550-8DD386467802}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{380648AE-5694-4865-8CC1-916737F6AE32}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{D8E002C3-334E-4C47-8488-F41D8686049C}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="14">
   <si>
     <t>datum</t>
   </si>
@@ -69,6 +69,15 @@
   </si>
   <si>
     <t>functie die een random variabele uit een lijst pakt met even kansen en die teruggeeft</t>
+  </si>
+  <si>
+    <t>meedere bestanden, twee extra locaties, nog meer aanpassingen aan de winkel</t>
+  </si>
+  <si>
+    <t>de verhalen dictionary werd te groot, de speler moet nog steeds sommige items kunnen krijgen ookal hoeft hij niet meer naar de winkel</t>
+  </si>
+  <si>
+    <t>verhalen naar een ander python bestand verplaatst, de speler kan kiezen om nog steeds naar de winkel te gaan</t>
   </si>
 </sst>
 </file>
@@ -459,10 +468,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{932390AF-8C0A-4B7D-9BF6-078AB6555E27}">
-  <dimension ref="A1:E3"/>
+  <dimension ref="A1:E4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C12" sqref="C12"/>
+      <selection activeCell="E4" sqref="E4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -508,12 +517,12 @@
         <v>7</v>
       </c>
     </row>
-    <row r="3" spans="1:5" ht="60" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:5" ht="63.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="3">
         <v>45185</v>
       </c>
       <c r="B3" s="1">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C3" s="1" t="s">
         <v>8</v>
@@ -523,6 +532,23 @@
       </c>
       <c r="E3" s="1" t="s">
         <v>10</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" ht="60" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="3">
+        <v>45185</v>
+      </c>
+      <c r="B4" s="1">
+        <v>2</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="D4" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="E4" s="1" t="s">
+        <v>13</v>
       </c>
     </row>
   </sheetData>

--- a/logboek_jasper.xlsx
+++ b/logboek_jasper.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Coding\Challange_Week-1\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{380648AE-5694-4865-8CC1-916737F6AE32}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F87650D8-F6B1-49D3-AD7A-5DD4CA03D9CD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{D8E002C3-334E-4C47-8488-F41D8686049C}"/>
   </bookViews>
@@ -468,10 +468,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{932390AF-8C0A-4B7D-9BF6-078AB6555E27}">
-  <dimension ref="A1:E4"/>
+  <dimension ref="A1:E5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E4" sqref="E4"/>
+      <selection activeCell="C10" sqref="C10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -519,7 +519,7 @@
     </row>
     <row r="3" spans="1:5" ht="63.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="3">
-        <v>45185</v>
+        <v>45195</v>
       </c>
       <c r="B3" s="1">
         <v>3</v>
@@ -536,7 +536,7 @@
     </row>
     <row r="4" spans="1:5" ht="60" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="3">
-        <v>45185</v>
+        <v>45195</v>
       </c>
       <c r="B4" s="1">
         <v>2</v>
@@ -549,6 +549,11 @@
       </c>
       <c r="E4" s="1" t="s">
         <v>13</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A5" s="3">
+        <v>45196</v>
       </c>
     </row>
   </sheetData>

--- a/logboek_jasper.xlsx
+++ b/logboek_jasper.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Coding\Challange_Week-1\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F87650D8-F6B1-49D3-AD7A-5DD4CA03D9CD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8640F10B-60E8-4634-B581-3B38C667D771}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{D8E002C3-334E-4C47-8488-F41D8686049C}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="15">
   <si>
     <t>datum</t>
   </si>
@@ -78,6 +78,9 @@
   </si>
   <si>
     <t>verhalen naar een ander python bestand verplaatst, de speler kan kiezen om nog steeds naar de winkel te gaan</t>
+  </si>
+  <si>
+    <t xml:space="preserve">raadsels, camping locatie, kluis, saturnus  verhaal verder geschreven </t>
   </si>
 </sst>
 </file>
@@ -471,7 +474,7 @@
   <dimension ref="A1:E5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C10" sqref="C10"/>
+      <selection activeCell="E8" sqref="E8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -551,9 +554,15 @@
         <v>13</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:5" ht="59.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="3">
         <v>45196</v>
+      </c>
+      <c r="B5" s="1">
+        <v>3</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>14</v>
       </c>
     </row>
   </sheetData>

--- a/logboek_jasper.xlsx
+++ b/logboek_jasper.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Coding\Challange_Week-1\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8640F10B-60E8-4634-B581-3B38C667D771}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{04EC301A-BAEF-49C5-922E-E866E806E061}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{D8E002C3-334E-4C47-8488-F41D8686049C}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="15">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="19">
   <si>
     <t>datum</t>
   </si>
@@ -81,6 +81,18 @@
   </si>
   <si>
     <t xml:space="preserve">raadsels, camping locatie, kluis, saturnus  verhaal verder geschreven </t>
+  </si>
+  <si>
+    <t>2.5</t>
+  </si>
+  <si>
+    <t>kleuren in de command terminal, verder met het saturnus verhaal, bugs gefixed, daan geholpen</t>
+  </si>
+  <si>
+    <t>de situatie beter aantonen met de text</t>
+  </si>
+  <si>
+    <t>kleuren gebruiken voor de text</t>
   </si>
 </sst>
 </file>
@@ -471,10 +483,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{932390AF-8C0A-4B7D-9BF6-078AB6555E27}">
-  <dimension ref="A1:E5"/>
+  <dimension ref="A1:E6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E8" sqref="E8"/>
+      <selection activeCell="L5" sqref="L5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -565,6 +577,23 @@
         <v>14</v>
       </c>
     </row>
+    <row r="6" spans="1:5" ht="45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="3">
+        <v>45196</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="D6" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="E6" s="1" t="s">
+        <v>18</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/logboek_jasper.xlsx
+++ b/logboek_jasper.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Coding\Challange_Week-1\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{04EC301A-BAEF-49C5-922E-E866E806E061}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{52B59828-8B22-4510-AFC7-A7FC7F64A0FA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{D8E002C3-334E-4C47-8488-F41D8686049C}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="19">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="28">
   <si>
     <t>datum</t>
   </si>
@@ -83,9 +83,6 @@
     <t xml:space="preserve">raadsels, camping locatie, kluis, saturnus  verhaal verder geschreven </t>
   </si>
   <si>
-    <t>2.5</t>
-  </si>
-  <si>
     <t>kleuren in de command terminal, verder met het saturnus verhaal, bugs gefixed, daan geholpen</t>
   </si>
   <si>
@@ -93,6 +90,36 @@
   </si>
   <si>
     <t>kleuren gebruiken voor de text</t>
+  </si>
+  <si>
+    <t>winkel en extra verhaal toegevoegd</t>
+  </si>
+  <si>
+    <t>mensen helpen in het ruimteschip met wat puzzels</t>
+  </si>
+  <si>
+    <t>verschillende variable types als antwoord</t>
+  </si>
+  <si>
+    <t>type functie gebruikt met if statements</t>
+  </si>
+  <si>
+    <t>astroïde spel met bewegende astroides en speler</t>
+  </si>
+  <si>
+    <t>astroides en speler moeten bewegen en er duidelijk uit zien</t>
+  </si>
+  <si>
+    <t>rode kleuren voor de astroides, gele waar ze volgende beweging gaan zijn en de speler groen, grid gebruiken en achterstevoren loopen om ze goed te bewegen</t>
+  </si>
+  <si>
+    <t>spellingsfouten, deel terug naar aarde toe en het verhaal er achter</t>
+  </si>
+  <si>
+    <t>niet genoeg plek in de dictionary voor de verhalen</t>
+  </si>
+  <si>
+    <t>twee dictionaries voor de verhalen</t>
   </si>
 </sst>
 </file>
@@ -483,10 +510,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{932390AF-8C0A-4B7D-9BF6-078AB6555E27}">
-  <dimension ref="A1:E6"/>
+  <dimension ref="A1:E11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L5" sqref="L5"/>
+      <selection activeCell="L6" sqref="L6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -516,37 +543,26 @@
       </c>
     </row>
     <row r="2" spans="1:5" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="3">
-        <v>45194</v>
-      </c>
       <c r="B2" s="1">
-        <v>3</v>
-      </c>
-      <c r="C2" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="D2" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="E2" s="1" t="s">
-        <v>7</v>
+        <f xml:space="preserve"> SUM(B3:B11)</f>
+        <v>23</v>
       </c>
     </row>
     <row r="3" spans="1:5" ht="63.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="3">
-        <v>45195</v>
+        <v>45194</v>
       </c>
       <c r="B3" s="1">
         <v>3</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
     </row>
     <row r="4" spans="1:5" ht="60" customHeight="1" x14ac:dyDescent="0.25">
@@ -554,44 +570,123 @@
         <v>45195</v>
       </c>
       <c r="B4" s="1">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="E4" s="1" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
     </row>
     <row r="5" spans="1:5" ht="59.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="3">
-        <v>45196</v>
+        <v>45195</v>
       </c>
       <c r="B5" s="1">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>14</v>
+        <v>11</v>
+      </c>
+      <c r="D5" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="E5" s="1" t="s">
+        <v>13</v>
       </c>
     </row>
     <row r="6" spans="1:5" ht="45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="3">
         <v>45196</v>
       </c>
-      <c r="B6" s="1" t="s">
+      <c r="B6" s="1">
+        <v>3</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" ht="60.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="3">
+        <v>45196</v>
+      </c>
+      <c r="B7" s="1">
+        <v>2.5</v>
+      </c>
+      <c r="C7" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="C6" s="1" t="s">
+      <c r="D7" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="D6" s="1" t="s">
+      <c r="E7" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="E6" s="1" t="s">
+    </row>
+    <row r="8" spans="1:5" ht="60.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="3">
+        <v>45196</v>
+      </c>
+      <c r="B8" s="1">
+        <v>1</v>
+      </c>
+      <c r="C8" s="1" t="s">
         <v>18</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" ht="79.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A9" s="3">
+        <v>45197</v>
+      </c>
+      <c r="B9" s="1">
+        <v>4.5</v>
+      </c>
+      <c r="C9" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="D9" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="E9" s="1" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" ht="60" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A10" s="3">
+        <v>45197</v>
+      </c>
+      <c r="B10" s="1">
+        <v>3</v>
+      </c>
+      <c r="C10" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="D10" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="E10" s="1" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" ht="60" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A11" s="3">
+        <v>45197</v>
+      </c>
+      <c r="B11" s="1">
+        <v>1</v>
+      </c>
+      <c r="C11" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="D11" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="E11" s="1" t="s">
+        <v>27</v>
       </c>
     </row>
   </sheetData>

--- a/logboek_jasper.xlsx
+++ b/logboek_jasper.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Coding\Challange_Week-1\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{52B59828-8B22-4510-AFC7-A7FC7F64A0FA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9CF46A64-17CC-4768-A5C6-5AA9D70E7755}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{D8E002C3-334E-4C47-8488-F41D8686049C}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="32">
   <si>
     <t>datum</t>
   </si>
@@ -120,6 +120,18 @@
   </si>
   <si>
     <t>twee dictionaries voor de verhalen</t>
+  </si>
+  <si>
+    <t>29/09/20223</t>
+  </si>
+  <si>
+    <t>het spel te saai</t>
+  </si>
+  <si>
+    <t>foto's en alle kleuren</t>
+  </si>
+  <si>
+    <t>foto's tekenen, alle kleuren acceptabel, lua programma om foto's om te zetten in een lijst die ik in python kan gebruiken om foto's te tekenen in de terminal en bugfixes</t>
   </si>
 </sst>
 </file>
@@ -510,10 +522,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{932390AF-8C0A-4B7D-9BF6-078AB6555E27}">
-  <dimension ref="A1:E11"/>
+  <dimension ref="A1:E12"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L6" sqref="L6"/>
+    <sheetView tabSelected="1" topLeftCell="A5" workbookViewId="0">
+      <selection activeCell="F14" sqref="F14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -544,8 +556,8 @@
     </row>
     <row r="2" spans="1:5" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
       <c r="B2" s="1">
-        <f xml:space="preserve"> SUM(B3:B11)</f>
-        <v>23</v>
+        <f xml:space="preserve"> SUM(B3:B12)</f>
+        <v>29</v>
       </c>
     </row>
     <row r="3" spans="1:5" ht="63.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -687,6 +699,23 @@
       </c>
       <c r="E11" s="1" t="s">
         <v>27</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" ht="75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A12" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="B12" s="1">
+        <v>6</v>
+      </c>
+      <c r="C12" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="D12" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="E12" s="1" t="s">
+        <v>30</v>
       </c>
     </row>
   </sheetData>
